--- a/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
+++ b/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.07935158411593e-20</v>
+        <v>8.212874493072967e-20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.206277270989784e-07</v>
+        <v>4.293147194143158e-07</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.23779188629302e-05</v>
+        <v>2.026621950630687e-05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.573787435423437e-05</v>
+        <v>7.169032106434098e-05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.0001565820694395545</v>
+        <v>0.0001511793137168962</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.0002598392705741512</v>
+        <v>0.0002532692682037369</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.0003873523051186568</v>
+        <v>0.0003794519495307751</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.0005388153097449909</v>
+        <v>0.0005294124336318542</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.0007157159976619268</v>
+        <v>0.0007047695673728633</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.0009164080556681364</v>
+        <v>0.0009047992370210359</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.00113724746546654</v>
+        <v>0.001124958769846898</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.00137742202990888</v>
+        <v>0.001364425787169447</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.001636798894551202</v>
+        <v>0.001622928266122179</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.001915704793213038</v>
+        <v>0.001901454205834685</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.002214846231486343</v>
+        <v>0.002199709882450249</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.002533225569644069</v>
+        <v>0.002517528717938737</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.0028705157302316</v>
+        <v>0.002854651280792762</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.003225977552421121</v>
+        <v>0.003210158228764388</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.003600734684829313</v>
+        <v>0.003585108467416959</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.003993384427822221</v>
+        <v>0.003978256839524359</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.004405037401246941</v>
+        <v>0.004390129860154115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.004836930104500595</v>
+        <v>0.004822279316490255</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.005288545498289163</v>
+        <v>0.00527475239330836</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.005758988532915316</v>
+        <v>0.005746346638252946</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.006247079536544818</v>
+        <v>0.006236194952582918</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.006751273533702788</v>
+        <v>0.006742255360759932</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.007271714010155402</v>
+        <v>0.007264891421519726</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.007807724411860992</v>
+        <v>0.007803056541070563</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.008360050424882165</v>
+        <v>0.008357360052604651</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.00892794483291731</v>
+        <v>0.00892765614178403</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.009512533920982984</v>
+        <v>0.009514392312317398</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.01011329492152119</v>
+        <v>0.01011790629498617</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.01072900776307507</v>
+        <v>0.01073658378920926</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.01136039909804755</v>
+        <v>0.01137137253915236</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.01200687007273781</v>
+        <v>0.01202132696606214</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.01266886552130627</v>
+        <v>0.01268706424677865</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.01333732047177948</v>
+        <v>0.01336541737399563</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.01401820093161517</v>
+        <v>0.01405106927670854</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.014715722185338</v>
+        <v>0.01475250396748943</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.01542842627153215</v>
+        <v>0.0154699097044362</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.01615827120007961</v>
+        <v>0.01620348617394897</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.01690388980595307</v>
+        <v>0.01695372690553221</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.01766587422192003</v>
+        <v>0.01771970756298378</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.01844533492821682</v>
+        <v>0.01850330983992194</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.01924253603025031</v>
+        <v>0.01930493970776902</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.02005725407648123</v>
+        <v>0.02012432056320095</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.02089056757887769</v>
+        <v>0.02096209866132571</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.02174372600213246</v>
+        <v>0.0218197557781809</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.02261678531150274</v>
+        <v>0.02269736683792732</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.02350873263219317</v>
+        <v>0.02359408655414262</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.02442030280668324</v>
+        <v>0.02451085265747116</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.02535365183478022</v>
+        <v>0.02544950858301984</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.02630820330665203</v>
+        <v>0.02640954583002351</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.02728418267133813</v>
+        <v>0.02739139375377308</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.02828246187228309</v>
+        <v>0.02839528961379154</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.02930506179021802</v>
+        <v>0.02942323321267271</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.03035205458369494</v>
+        <v>0.03047572929835361</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.03142183780057763</v>
+        <v>0.03155209528743226</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.03251452908254825</v>
+        <v>0.03265244206928505</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.03363187035970613</v>
+        <v>0.03377647357493634</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.03477711001748578</v>
+        <v>0.03492821606352312</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.03595083744219016</v>
+        <v>0.03610806165556447</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.0371555269686055</v>
+        <v>0.0373183539791419</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.03839109649630844</v>
+        <v>0.03855948843184845</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.03966005693275031</v>
+        <v>0.0398344812688274</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.04096291983325634</v>
+        <v>0.04114351066586011</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.04230165193554888</v>
+        <v>0.0424888896281787</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.04367891555153775</v>
+        <v>0.04387230210755289</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.04509357929615095</v>
+        <v>0.04529355376172279</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.04655040573137537</v>
+        <v>0.04675521977265516</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.04805264283200314</v>
+        <v>0.04826229902714562</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.04960658795318987</v>
+        <v>0.0498193569090819</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.0512147171959176</v>
+        <v>0.05143038426028603</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.05288084584893299</v>
+        <v>0.05310045282592133</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.05461681226656103</v>
+        <v>0.05483733795022425</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.05642939753113894</v>
+        <v>0.0566490535954151</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.05832593587632687</v>
+        <v>0.05853890731295657</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.06031742270101735</v>
+        <v>0.06052238823162329</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.06242005772276046</v>
+        <v>0.06261391376079944</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.06466123795015741</v>
+        <v>0.06483326775042986</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.0670607458654728</v>
+        <v>0.0672046705385225</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.06964831441477129</v>
+        <v>0.06975866814409926</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.07245653285677427</v>
+        <v>0.07252053877651229</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.0755373598240823</v>
+        <v>0.07554067650478956</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.07894512477135009</v>
+        <v>0.07887442091129834</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.08278800648020131</v>
+        <v>0.08262109177183373</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.08718272005005409</v>
+        <v>0.08691580814845008</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.09240431778654144</v>
+        <v>0.09200999171696705</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.09951988233572935</v>
+        <v>0.0990661811670534</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.1109988460338147</v>
+        <v>0.110612915108034</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.1285879325023738</v>
+        <v>0.1283132034374214</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.153151319026551</v>
+        <v>0.1530207706621134</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.1859046738369165</v>
+        <v>0.185947936394065</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.228789152610069</v>
+        <v>0.2290318149527441</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.2837645331657235</v>
+        <v>0.2842171623241084</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.353330784610925</v>
+        <v>0.3539944154514769</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.4411414096153311</v>
+        <v>0.4419919726559755</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.5540888278555111</v>
+        <v>0.5550460128619961</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>0.7114752913282258</v>
+        <v>0.7123516428591801</v>
       </c>
     </row>
     <row r="102" spans="1:3">

--- a/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
+++ b/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.212874493072967e-20</v>
+        <v>8.212874493072967E-20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.293147194143158e-07</v>
+        <v>4.293147194143158E-07</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.026621950630687e-05</v>
+        <v>2.026621950630687E-05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.169032106434098e-05</v>
+        <v>7.169032106434098E-05</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
+++ b/Code/HA-Models/Target_AggMPCX_LiquWealth/LiquWealth_Distribution_a.xlsx
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7.836706412648624e-20</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.50812168336588e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.748188353590847e-19</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.037942570316518e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>8.672438078604275e-06</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.925072972296447e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4.571382280360046e-05</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.812203374276377e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001130331346047029</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.699333776256307e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002023847538434212</v>
+        <v>1.848651158265418e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>4.586464178236237e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003125539192520779</v>
+        <v>8.629401430334518e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>5.473594580216166e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004444456542490067</v>
+        <v>3.57861057156248e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>6.360724982196097e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005989067528743902</v>
+        <v>8.158993579336011e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>7.247855384176026e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007763786475923094</v>
+        <v>0.0001452887697347207</v>
       </c>
       <c r="D12" t="n">
-        <v>8.134985786155955e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0009722507362836764</v>
+        <v>0.0002264599827342399</v>
       </c>
       <c r="D13" t="n">
-        <v>9.246116614635817e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001186206097971421</v>
+        <v>0.0003247913490243328</v>
       </c>
       <c r="D14" t="n">
-        <v>2.411828884996746e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001419345912792917</v>
+        <v>0.0004408157094592831</v>
       </c>
       <c r="D15" t="n">
-        <v>1.376643376607982e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001672582912782829</v>
+        <v>0.0005735910967008442</v>
       </c>
       <c r="D16" t="n">
-        <v>3.358545483149464e-05</v>
+        <v>5.581914313972155e-06</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001945585509548651</v>
+        <v>0.000724910568929212</v>
       </c>
       <c r="D17" t="n">
-        <v>6.038436427045521e-05</v>
+        <v>2.395874574452934e-05</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002237423640320486</v>
+        <v>0.0008940871743036786</v>
       </c>
       <c r="D18" t="n">
-        <v>9.370536902337852e-05</v>
+        <v>5.395803128339271e-05</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002549679612230559</v>
+        <v>0.001082678300202107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001331508330860702</v>
+        <v>9.411622673176995e-05</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002881943378400964</v>
+        <v>0.001289899307701796</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001800359345899065</v>
+        <v>0.0001449428268263245</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003233789022781355</v>
+        <v>0.001515372281024599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002349927403073845</v>
+        <v>0.0002058285475018214</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003604102685811906</v>
+        <v>0.001758703238329739</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002975781940386295</v>
+        <v>0.0002769013941261135</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003994616760886468</v>
+        <v>0.002021123038553598</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0003683447845423554</v>
+        <v>0.0003581832471944157</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004404469972121896</v>
+        <v>0.002301638373605559</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0004480020144186457</v>
+        <v>0.0004501173684320405</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004833487891914301</v>
+        <v>0.002601505142314592</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000536411406947655</v>
+        <v>0.0005524386362640647</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005281450730134377</v>
+        <v>0.002922015500598368</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0006335465789132388</v>
+        <v>0.0006658570052580817</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00574862513174608</v>
+        <v>0.003262769751446372</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0007378502738840661</v>
+        <v>0.0007898883685609782</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006235060823791994</v>
+        <v>0.003623793476160117</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0008497444577136105</v>
+        <v>0.0009258213359183565</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006739544552091567</v>
+        <v>0.004006090849688459</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0009682859675534142</v>
+        <v>0.001073456657501028</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007260970731303438</v>
+        <v>0.004409755602286333</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001094488587751181</v>
+        <v>0.001234174215762358</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00780044714023294</v>
+        <v>0.004835587592553756</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001227980420649061</v>
+        <v>0.001406994624885992</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008356527605563666</v>
+        <v>0.005283813535389457</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001368730059651393</v>
+        <v>0.001591301572885864</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008930075207123099</v>
+        <v>0.00575586740423954</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001517380407020756</v>
+        <v>0.001787480436637567</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009520712362497954</v>
+        <v>0.006252026569685305</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001674326569817329</v>
+        <v>0.001996563323604301</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01012901978035935</v>
+        <v>0.006771480875587036</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001840228943651329</v>
+        <v>0.002217805172987552</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01075619421554862</v>
+        <v>0.007315981828670959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002014536270195887</v>
+        <v>0.002452849281681767</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01140018434745442</v>
+        <v>0.0078885927962675</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002197712790556017</v>
+        <v>0.002703076696549811</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0120614815268747</v>
+        <v>0.008488512532464746</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002390053837293751</v>
+        <v>0.002968818256483796</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01274220910770639</v>
+        <v>0.009117915647600672</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002592791574460203</v>
+        <v>0.003250325080223701</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01343664364101936</v>
+        <v>0.009775566679519307</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002807008202493525</v>
+        <v>0.003547496145192132</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01414344340517358</v>
+        <v>0.01046174078788672</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003033095206334843</v>
+        <v>0.003860251135713529</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01486853426173175</v>
+        <v>0.01117585559508204</v>
       </c>
       <c r="D42" t="n">
-        <v>0.003271391775615364</v>
+        <v>0.004188726913248905</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01561258304733495</v>
+        <v>0.01192132392023616</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003522541842061556</v>
+        <v>0.004534531481107271</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01637559829940102</v>
+        <v>0.01269854245234837</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003786872806961966</v>
+        <v>0.004898019053775293</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01715866110613306</v>
+        <v>0.01350844549611614</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00406550067169931</v>
+        <v>0.00527870927697528</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01796259104770025</v>
+        <v>0.014352092953841</v>
       </c>
       <c r="D46" t="n">
-        <v>0.004358560589872491</v>
+        <v>0.00567925265883003</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01878710786706841</v>
+        <v>0.01523266151243704</v>
       </c>
       <c r="D47" t="n">
-        <v>0.004664516992482661</v>
+        <v>0.006098057463777794</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01963256119092713</v>
+        <v>0.01614964635304865</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004981076420475938</v>
+        <v>0.006537030950276152</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02050211022055818</v>
+        <v>0.01710403762537641</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005309661313663644</v>
+        <v>0.006998998747128493</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02139312705474251</v>
+        <v>0.01809596405071672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.005650821836205558</v>
+        <v>0.007483677327515616</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02230776745624572</v>
+        <v>0.01912612660035589</v>
       </c>
       <c r="D51" t="n">
-        <v>0.006003674957217391</v>
+        <v>0.007990666079910532</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02324669988563222</v>
+        <v>0.02019344679425151</v>
       </c>
       <c r="D52" t="n">
-        <v>0.006368069277245689</v>
+        <v>0.008519422283512317</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02421168437018033</v>
+        <v>0.02130386235023082</v>
       </c>
       <c r="D53" t="n">
-        <v>0.006745206625224886</v>
+        <v>0.009070982358277729</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02520132936927377</v>
+        <v>0.02246009240890871</v>
       </c>
       <c r="D54" t="n">
-        <v>0.007134794988176772</v>
+        <v>0.009647720499109285</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0262168335737104</v>
+        <v>0.02366191496656731</v>
       </c>
       <c r="D55" t="n">
-        <v>0.007539020176867254</v>
+        <v>0.01025070962051034</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02725947634534972</v>
+        <v>0.02491145968664366</v>
       </c>
       <c r="D56" t="n">
-        <v>0.007956513089621533</v>
+        <v>0.01088081613215369</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02832971464817696</v>
+        <v>0.02621089514218796</v>
       </c>
       <c r="D57" t="n">
-        <v>0.008387428918702427</v>
+        <v>0.01153878917353518</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>56</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02942918333358559</v>
+        <v>0.02756270910947833</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00883249627573649</v>
+        <v>0.01222621898230268</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03055974761760077</v>
+        <v>0.02897082583611871</v>
       </c>
       <c r="D59" t="n">
-        <v>0.009292773095453358</v>
+        <v>0.01294195311680361</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>58</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03172206153072574</v>
+        <v>0.03043563762988971</v>
       </c>
       <c r="D60" t="n">
-        <v>0.009770261242688183</v>
+        <v>0.01368522223732832</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03291957570972745</v>
+        <v>0.03195584506948419</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0102638752311183</v>
+        <v>0.01445919199768124</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>60</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03415325615684298</v>
+        <v>0.03353463008261574</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01077456664992144</v>
+        <v>0.01526518928522395</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>61</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03542726564893868</v>
+        <v>0.03517350216937644</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01130233093688732</v>
+        <v>0.01610568252518509</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>62</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03674284770545931</v>
+        <v>0.03688458123279914</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01185057392101682</v>
+        <v>0.0169791448371517</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>63</v>
       </c>
       <c r="C65" t="n">
-        <v>0.038099893855373</v>
+        <v>0.03867490910589202</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01241906000902314</v>
+        <v>0.01788851024295812</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>64</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03950422312488024</v>
+        <v>0.04054354385268845</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01300812118666445</v>
+        <v>0.01883536120312562</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>65</v>
       </c>
       <c r="C67" t="n">
-        <v>0.040960867307286</v>
+        <v>0.04250457018232223</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01362134521185105</v>
+        <v>0.01981957949496243</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>66</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0424708915290903</v>
+        <v>0.04456492103503033</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01425694547505981</v>
+        <v>0.020843863502726</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>67</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04403847113076955</v>
+        <v>0.0467278280438068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01491290019990508</v>
+        <v>0.02191041957886909</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04567034620513239</v>
+        <v>0.04900743513945455</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01559921889262007</v>
+        <v>0.02302179042945563</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>69</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04737799461796148</v>
+        <v>0.05141787819337239</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01631768586966555</v>
+        <v>0.02418256334479382</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04917744193443108</v>
+        <v>0.05398091831767622</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01707292385967034</v>
+        <v>0.02539032165481049</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>71</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05107328740593165</v>
+        <v>0.05671953637977685</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01786686858259432</v>
+        <v>0.02664892942348986</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>72</v>
       </c>
       <c r="C74" t="n">
-        <v>0.05308349363696702</v>
+        <v>0.05965117860921963</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01870498695703117</v>
+        <v>0.02796490881600504</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>73</v>
       </c>
       <c r="C75" t="n">
-        <v>0.05522817713088517</v>
+        <v>0.06279441370588512</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01960044351292795</v>
+        <v>0.02934538623441432</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>0.05752944393068776</v>
+        <v>0.0661837065941792</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0205547074332328</v>
+        <v>0.03079981660540627</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>75</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06002336111607137</v>
+        <v>0.06990208124469079</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02157820582502995</v>
+        <v>0.03232659487315364</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>76</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06279533048869558</v>
+        <v>0.07400343836646275</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0226816238841512</v>
+        <v>0.03394091484267808</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>77</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06595773413200751</v>
+        <v>0.07855896095546797</v>
       </c>
       <c r="D79" t="n">
-        <v>0.02387575101473033</v>
+        <v>0.03564050952743403</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>78</v>
       </c>
       <c r="C80" t="n">
-        <v>0.06971756661112929</v>
+        <v>0.08362345145617162</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02518196444941248</v>
+        <v>0.037444889464284</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>79</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07444517625397287</v>
+        <v>0.08925581334083788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02663535244575992</v>
+        <v>0.03936855756950733</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>80</v>
       </c>
       <c r="C82" t="n">
-        <v>0.08033480532508584</v>
+        <v>0.09548072573510334</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02826196354511642</v>
+        <v>0.04143620376145576</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>81</v>
       </c>
       <c r="C83" t="n">
-        <v>0.08756768891235207</v>
+        <v>0.1023557961971335</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03007989778726309</v>
+        <v>0.04367057870975791</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>82</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09629745294790444</v>
+        <v>0.1099821286977521</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03212576578403741</v>
+        <v>0.0461224126985918</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>83</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1065768421448492</v>
+        <v>0.1184396291548474</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03441779558891873</v>
+        <v>0.04883954865913382</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>84</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1185074972490781</v>
+        <v>0.12790343816437</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03696380450477219</v>
+        <v>0.05194420497538475</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>85</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1321861826660187</v>
+        <v>0.1385371133944896</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03980816273448436</v>
+        <v>0.05555706999916801</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1477612907830017</v>
+        <v>0.1507233118955087</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04299938367134855</v>
+        <v>0.06011473886522573</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>87</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1653657631314975</v>
+        <v>0.1649200401693039</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04665792711070808</v>
+        <v>0.0676966838447788</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1852010301034236</v>
+        <v>0.1822302172879039</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0510462974743691</v>
+        <v>0.08333357312648947</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>89</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2076589075255583</v>
+        <v>0.2047957061264629</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05692809241299897</v>
+        <v>0.1071827620336817</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>90</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2329131390630174</v>
+        <v>0.2341845279079098</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06663170474981166</v>
+        <v>0.1392612400619395</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>91</v>
       </c>
       <c r="C93" t="n">
-        <v>0.26109109207414</v>
+        <v>0.271341383841199</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08167898672392356</v>
+        <v>0.1800641854559589</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>92</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2928386445907259</v>
+        <v>0.3158288464589407</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1025351939568488</v>
+        <v>0.2290100809710532</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>93</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3288366308027802</v>
+        <v>0.3672233655101436</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1306358414680543</v>
+        <v>0.2859495174893664</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3700266320005927</v>
+        <v>0.4257459704027849</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1668890432261053</v>
+        <v>0.3510517528023256</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>95</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4178709816471856</v>
+        <v>0.4921630365870894</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2132422332705797</v>
+        <v>0.4250329717688658</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>96</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4741043244487606</v>
+        <v>0.5659931523888523</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2727751657157921</v>
+        <v>0.5077496658443149</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>97</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5417881167099189</v>
+        <v>0.6483115577321803</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3495913059575887</v>
+        <v>0.6003524429479112</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>98</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6263002956629237</v>
+        <v>0.7410554761467684</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4533351232655475</v>
+        <v>0.7050360616910133</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>99</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7432802807028019</v>
+        <v>0.8489297142699497</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6076858694212053</v>
+        <v>0.827393628201106</v>
       </c>
     </row>
     <row r="102">
